--- a/xlsx/复式记帐法_intext.xlsx
+++ b/xlsx/复式记帐法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>复式记帐法</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>會計學</t>
+    <t>会计学</t>
   </si>
   <si>
     <t>政策_政策_管理_复式记帐法</t>
@@ -35,31 +35,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>財務會計</t>
+    <t>财务会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>管理會計</t>
+    <t>管理会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>會計師</t>
+    <t>会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E6%9C%9F%E9%96%93</t>
   </si>
   <si>
-    <t>會計期間</t>
+    <t>会计期间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E7%A7%91%E7%9B%AE</t>
   </si>
   <si>
-    <t>會計科目</t>
+    <t>会计科目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1%E6%96%B9%E6%B3%95</t>
@@ -71,55 +71,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E8%B2%AC%E7%99%BC%E7%94%9F%E5%88%B6%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>權責發生制原則</t>
+    <t>权责发生制原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%BF%E8%A8%98</t>
   </si>
   <si>
-    <t>簿記</t>
+    <t>簿记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%80%B2%E5%85%88%E5%87%BA%E5%92%8C%E5%BE%8C%E9%80%B2%E5%85%88%E5%87%BA%E6%9C%83%E8%A8%88%E6%B3%95</t>
   </si>
   <si>
-    <t>先進先出和後進先出會計法</t>
+    <t>先进先出和后进先出会计法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%85%AC%E8%AA%8D%E6%9C%83%E8%A8%88%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>一般公認會計原則</t>
+    <t>一般公认会计原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A1%E5%8B%99%E5%A0%B1%E5%91%8A%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際財務報告準則</t>
+    <t>国际财务报告准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%A8%88%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際會計準則</t>
+    <t>国际会计准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E6%89%A3%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>折扣種類</t>
+    <t>折扣种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E8%88%8A</t>
   </si>
   <si>
-    <t>折舊</t>
+    <t>折旧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%AD%BD</t>
   </si>
   <si>
-    <t>商譽</t>
+    <t>商誉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%88%90%E6%9C%AC</t>
@@ -131,49 +131,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A8%98</t>
   </si>
   <si>
-    <t>日記</t>
+    <t>日记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%AE%97</t>
   </si>
   <si>
-    <t>試算</t>
+    <t>试算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%9C%AC%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>成本會計</t>
+    <t>成本会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%9C%83%E8%A8%88</t>
   </si>
   <si>
-    <t>政府會計</t>
+    <t>政府会计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%A0%B1%E8%A1%A8</t>
   </si>
   <si>
-    <t>財務報表</t>
+    <t>财务报表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E8%B2%A0%E5%82%B5%E8%A1%A8</t>
   </si>
   <si>
-    <t>資產負債表</t>
+    <t>资产负债表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E9%87%91%E6%B5%81%E9%87%8F%E8%A1%A8</t>
   </si>
   <si>
-    <t>現金流量表</t>
+    <t>现金流量表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E8%A1%A8</t>
   </si>
   <si>
-    <t>利潤表</t>
+    <t>利润表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/XBRL</t>
@@ -185,25 +185,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E5%B8%B3%E6%86%91%E8%AD%89</t>
   </si>
   <si>
-    <t>記帳憑證</t>
+    <t>记帐凭证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%8C%84</t>
   </si>
   <si>
-    <t>分錄</t>
+    <t>分录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%B8%B3</t>
   </si>
   <si>
-    <t>過帳</t>
+    <t>过帐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>審計</t>
+    <t>审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E8%AE%A1%E6%8A%A5%E5%91%8A</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%AF%A9%E8%A8%88</t>
   </si>
   <si>
-    <t>財務審計</t>
+    <t>财务审计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%AF%A9%E8%A8%88%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際審計準則</t>
+    <t>国际审计准则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%8F%AD%E6%96%AF-%E5%A5%A5%E5%85%8B%E6%96%AF%E5%88%A9%E6%B3%95%E6%A1%88</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%A8%B1%E5%85%AC%E8%AA%8D%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>特許公認會計師</t>
+    <t>特许公认会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E6%B3%A8%E5%86%8C%E4%BC%9A%E8%AE%A1%E5%B8%88%E5%8D%8F%E4%BC%9A</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%9C%83%E8%A8%88%E5%B8%AB</t>
   </si>
   <si>
-    <t>英國會計師</t>
+    <t>英国会计师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BC%9A%E8%AE%A1</t>
@@ -275,9 +275,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1%E5%AD%A6</t>
   </si>
   <si>
-    <t>会计学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%AD%E4%B8%BB%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>業主權益</t>
+    <t>业主权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E7%9B%8A</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1980,7 +1977,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2006,10 +2003,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2035,10 +2032,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2064,10 +2061,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2093,10 +2090,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2122,10 +2119,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2151,10 +2148,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2180,10 +2177,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2209,10 +2206,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2238,10 +2235,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2267,10 +2264,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2296,10 +2293,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2325,10 +2322,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2354,10 +2351,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2383,10 +2380,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -2412,10 +2409,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
